--- a/plan.xlsx
+++ b/plan.xlsx
@@ -11,13 +11,105 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>План план план</t>
+  </si>
+  <si>
+    <t>Мероприятие</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Очередность</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Трудоемкость</t>
+  </si>
+  <si>
+    <t>Ремонт на кухне</t>
+  </si>
+  <si>
+    <t>Замена окон на кухне</t>
+  </si>
+  <si>
+    <t>Замерять окна на кузне</t>
+  </si>
+  <si>
+    <t>Заказать окна на кухню</t>
+  </si>
+  <si>
+    <t>Построить курятник</t>
+  </si>
+  <si>
+    <t>Заказать песок</t>
+  </si>
+  <si>
+    <t>Снести двигатель</t>
+  </si>
+  <si>
+    <t>Убрать под навесом</t>
+  </si>
+  <si>
+    <t>Убрать культиватор</t>
+  </si>
+  <si>
+    <t>Убрать батут</t>
+  </si>
+  <si>
+    <t>Спланировать под курятник землю</t>
+  </si>
+  <si>
+    <t>Залить фундамент</t>
+  </si>
+  <si>
+    <t>Навести порядок в сарае</t>
+  </si>
+  <si>
+    <t>Определить место для Альфы</t>
+  </si>
+  <si>
+    <t>Сделать теплую будку крышу</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 дня </t>
+  </si>
+  <si>
+    <t>1д</t>
+  </si>
+  <si>
+    <t>0,5 д</t>
+  </si>
+  <si>
+    <t>0,5д</t>
+  </si>
+  <si>
+    <t>2д</t>
+  </si>
+  <si>
+    <t>4д</t>
+  </si>
+  <si>
+    <t>Купить пеноплекс для будки</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,16 +118,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +155,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -343,14 +484,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.75" customHeight="1">
+      <c r="F1" s="6">
+        <f ca="1">TODAY()</f>
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:E21">
+    <sortCondition ref="C6:C21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAD68C-B05F-46C3-BAB8-9298FB1BDB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>План план план</t>
   </si>
@@ -103,13 +104,16 @@
   </si>
   <si>
     <t>Купить пеноплекс для будки</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +147,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,12 +206,25 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -242,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -483,14 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -499,18 +564,18 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" customHeight="1">
+    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,7 +593,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -542,26 +607,28 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
@@ -570,12 +637,12 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
@@ -584,7 +651,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -598,7 +665,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -612,26 +679,28 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>1.2</v>
       </c>
       <c r="D13" s="1"/>
@@ -640,7 +709,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>17</v>
@@ -654,7 +723,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -668,7 +737,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -684,7 +753,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -698,7 +767,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -712,7 +781,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -726,7 +795,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -742,7 +811,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
         <v>28</v>
@@ -756,7 +825,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -764,7 +833,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -772,7 +841,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -780,7 +849,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -788,7 +857,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -796,7 +865,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -804,7 +873,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -812,7 +881,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -820,7 +889,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -828,7 +897,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -836,7 +905,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -844,7 +913,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
@@ -852,7 +921,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -860,7 +929,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
@@ -868,7 +937,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -876,7 +945,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
@@ -884,7 +953,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
@@ -892,7 +961,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
@@ -900,7 +969,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -908,7 +977,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -916,7 +985,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
@@ -925,7 +994,7 @@
       <c r="F42" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A6:E21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E21">
     <sortCondition ref="C6:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,12 +1003,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -947,12 +1016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
